--- a/station_in_config/Light.xlsx
+++ b/station_in_config/Light.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="11175" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>light_route_type</t>
+  </si>
+  <si>
+    <t>light_stick_type</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>mast</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>shunt</t>
+  </si>
+  <si>
+    <t>red yellow</t>
+  </si>
+  <si>
+    <t>red white</t>
+  </si>
+  <si>
+    <t>blue white</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,42 +430,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>light_route_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>light_stick_type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>colors</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/station_in_config/Light.xlsx
+++ b/station_in_config/Light.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -22,15 +22,24 @@
     <t>light_route_type</t>
   </si>
   <si>
+    <t>center_point</t>
+  </si>
+  <si>
+    <t>direct_point</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
     <t>light_stick_type</t>
   </si>
   <si>
-    <t>colors</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
+    <t>train</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>shunt</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -64,19 +76,61 @@
     <t>mast</t>
   </si>
   <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>shunt</t>
-  </si>
-  <si>
     <t>red yellow</t>
   </si>
   <si>
+    <t>blue white</t>
+  </si>
+  <si>
     <t>red white</t>
   </si>
   <si>
-    <t>blue white</t>
+    <t>Point_1</t>
+  </si>
+  <si>
+    <t>Point_4</t>
+  </si>
+  <si>
+    <t>Point_2</t>
+  </si>
+  <si>
+    <t>Point_9</t>
+  </si>
+  <si>
+    <t>Point_11</t>
+  </si>
+  <si>
+    <t>Point_19</t>
+  </si>
+  <si>
+    <t>Point_7</t>
+  </si>
+  <si>
+    <t>Point_18</t>
+  </si>
+  <si>
+    <t>Point_13</t>
+  </si>
+  <si>
+    <t>Point_20</t>
+  </si>
+  <si>
+    <t>Point_10</t>
+  </si>
+  <si>
+    <t>Point_17</t>
+  </si>
+  <si>
+    <t>Point_6</t>
+  </si>
+  <si>
+    <t>Point_12</t>
+  </si>
+  <si>
+    <t>Point_16</t>
+  </si>
+  <si>
+    <t>Point_14</t>
   </si>
 </sst>
 </file>
@@ -132,11 +186,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,20 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,163 +537,234 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/station_in_config/Light.xlsx
+++ b/station_in_config/Light.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="11175" windowHeight="8385"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="16425" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Point_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red yellow    </t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,7 +523,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,8 +560,8 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+      <c r="E2" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>

--- a/station_in_config/Light.xlsx
+++ b/station_in_config/Light.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="16425" windowHeight="8385"/>
+    <workbookView xWindow="1920" yWindow="225" windowWidth="16425" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,12 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -515,7 +514,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,7 +559,7 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -677,7 +676,7 @@
       <c r="C8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -694,10 +693,10 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -714,10 +713,10 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -734,10 +733,10 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -754,10 +753,10 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">

--- a/station_in_config/Light.xlsx
+++ b/station_in_config/Light.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="225" windowWidth="16425" windowHeight="8385"/>
+    <workbookView xWindow="10335" yWindow="225" windowWidth="10680" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +630,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
